--- a/Excels/ข้อมูลพื้นที่ 2562 (เพิ่มเติม).xlsx
+++ b/Excels/ข้อมูลพื้นที่ 2562 (เพิ่มเติม).xlsx
@@ -420,9 +420,6 @@
     <t>เขตปทุมวัน, เขตบางรัก และเขตสาทร</t>
   </si>
   <si>
-    <t>เขตราชเทวี, เขตพญาไท และเขตจตุจักร (เฉพาะแขวงจตุจักร และแขวงจอมพล)</t>
-  </si>
-  <si>
     <t>เขตบางกอกใหญ่, เขตคลองสาน และเขตธนบุรี (ยกเว้นแขวงดาวคะนอง แขวงบุคคโล และแขวงสำเหร่)</t>
   </si>
   <si>
@@ -1367,6 +1364,11 @@
   <si>
     <t>เขตพระนคร, เขตป้อมปราบศัตรูพ่าย, เขตสัมพันธวงศ์ 
 และเขตดุสิต (ยกเว้นแขวงถนนนครไชยศรี)</t>
+  </si>
+  <si>
+    <t>เขตราชเทวี, 
+เขตพญาไท 
+และเขตจตุจักร (เฉพาะแขวงจตุจักร และแขวงจอมพล)</t>
   </si>
 </sst>
 </file>
@@ -1851,7 +1853,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1865,7 +1867,7 @@
   <dimension ref="A1:E351"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="73" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1909,7 +1911,7 @@
         <v>23246</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.399999999999999">
@@ -1980,7 +1982,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.399999999999999">
+    <row r="7" spans="1:5" ht="61.2">
       <c r="A7" s="8" t="s">
         <v>77</v>
       </c>
@@ -1993,8 +1995,8 @@
       <c r="D7" s="10">
         <v>28690</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>129</v>
+      <c r="E7" s="14" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.399999999999999">
@@ -2266,7 +2268,7 @@
         <v>34368</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.399999999999999">
@@ -2351,7 +2353,7 @@
         <v>29545</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.399999999999999">
@@ -2419,7 +2421,7 @@
         <v>44346</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20.399999999999999">
@@ -2436,7 +2438,7 @@
         <v>41978</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.399999999999999">
@@ -2504,7 +2506,7 @@
         <v>30287</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20.399999999999999">
@@ -2521,7 +2523,7 @@
         <v>21363</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20.399999999999999">
@@ -2538,7 +2540,7 @@
         <v>37532</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20.399999999999999">
@@ -2555,7 +2557,7 @@
         <v>38058</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20.399999999999999">
@@ -2572,7 +2574,7 @@
         <v>32588</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20.399999999999999">
@@ -2589,7 +2591,7 @@
         <v>45503</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20.399999999999999">
@@ -2606,7 +2608,7 @@
         <v>40262</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20.399999999999999">
@@ -2657,7 +2659,7 @@
         <v>31127</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20.399999999999999">
@@ -2674,7 +2676,7 @@
         <v>30112</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20.399999999999999">
@@ -2708,7 +2710,7 @@
         <v>46276</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.399999999999999">
@@ -2725,7 +2727,7 @@
         <v>34676</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20.399999999999999">
@@ -2793,7 +2795,7 @@
         <v>29745</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20.399999999999999">
@@ -2861,7 +2863,7 @@
         <v>26805</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="20.399999999999999">
@@ -2878,7 +2880,7 @@
         <v>28750</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20.399999999999999">
@@ -2895,7 +2897,7 @@
         <v>32687</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="20.399999999999999">
@@ -2912,7 +2914,7 @@
         <v>35045</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="40.799999999999997">
@@ -2929,7 +2931,7 @@
         <v>44500</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="20.399999999999999">
@@ -2946,7 +2948,7 @@
         <v>31625</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="20.399999999999999">
@@ -2963,7 +2965,7 @@
         <v>42342</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="48" customHeight="1">
@@ -2980,7 +2982,7 @@
         <v>38268</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="61.2">
@@ -2997,7 +2999,7 @@
         <v>42427</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="20.399999999999999">
@@ -3014,7 +3016,7 @@
         <v>54644</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="20.399999999999999">
@@ -3031,7 +3033,7 @@
         <v>31261</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="20.399999999999999">
@@ -3048,7 +3050,7 @@
         <v>43284</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="40.799999999999997">
@@ -3065,7 +3067,7 @@
         <v>39189</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="20.399999999999999">
@@ -3082,7 +3084,7 @@
         <v>31247</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="20.399999999999999">
@@ -3099,7 +3101,7 @@
         <v>33967</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="20.399999999999999">
@@ -3116,7 +3118,7 @@
         <v>44104</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="20.399999999999999">
@@ -3133,7 +3135,7 @@
         <v>48505</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="20.399999999999999">
@@ -3150,7 +3152,7 @@
         <v>38481</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="20.399999999999999">
@@ -3167,7 +3169,7 @@
         <v>33614</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="20.399999999999999">
@@ -3184,7 +3186,7 @@
         <v>32352</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="20.399999999999999">
@@ -3201,7 +3203,7 @@
         <v>41991</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="20.399999999999999">
@@ -3218,7 +3220,7 @@
         <v>33313</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="20.399999999999999">
@@ -3235,7 +3237,7 @@
         <v>36009</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="40.799999999999997">
@@ -3252,7 +3254,7 @@
         <v>43683</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="20.399999999999999">
@@ -3269,7 +3271,7 @@
         <v>32765</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="20.399999999999999">
@@ -3286,7 +3288,7 @@
         <v>41464</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="20.399999999999999">
@@ -3303,7 +3305,7 @@
         <v>30179</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="20.399999999999999">
@@ -3320,7 +3322,7 @@
         <v>41603</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="20.399999999999999">
@@ -3337,7 +3339,7 @@
         <v>53202</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="20.399999999999999">
@@ -3354,7 +3356,7 @@
         <v>62026</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="20.399999999999999">
@@ -3371,7 +3373,7 @@
         <v>40972</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="20.399999999999999">
@@ -3388,7 +3390,7 @@
         <v>23273</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="20.399999999999999">
@@ -3405,7 +3407,7 @@
         <v>32769</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="20.399999999999999">
@@ -3422,7 +3424,7 @@
         <v>45894</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="20.399999999999999">
@@ -3439,7 +3441,7 @@
         <v>50127</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="20.399999999999999">
@@ -3456,7 +3458,7 @@
         <v>64040</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="20.399999999999999">
@@ -3473,7 +3475,7 @@
         <v>37454</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="20.399999999999999">
@@ -3490,7 +3492,7 @@
         <v>41169</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="20.399999999999999">
@@ -3507,7 +3509,7 @@
         <v>23576</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="20.399999999999999">
@@ -3524,7 +3526,7 @@
         <v>27477</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="20.399999999999999">
@@ -3541,7 +3543,7 @@
         <v>75891</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="20.399999999999999">
@@ -3558,7 +3560,7 @@
         <v>39390</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="20.399999999999999">
@@ -3575,7 +3577,7 @@
         <v>39416</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="20.399999999999999">
@@ -3592,7 +3594,7 @@
         <v>47640</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="20.399999999999999">
@@ -3609,7 +3611,7 @@
         <v>51602</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="20.399999999999999">
@@ -3626,7 +3628,7 @@
         <v>36744</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="20.399999999999999">
@@ -3643,7 +3645,7 @@
         <v>43787</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="20.399999999999999">
@@ -3660,7 +3662,7 @@
         <v>32929</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="24" customHeight="1">
@@ -3677,7 +3679,7 @@
         <v>20688</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="20.399999999999999">
@@ -3694,7 +3696,7 @@
         <v>60943</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="61.2">
@@ -3711,7 +3713,7 @@
         <v>35711</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="20.399999999999999">
@@ -3728,7 +3730,7 @@
         <v>30254</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="20.399999999999999">
@@ -3745,7 +3747,7 @@
         <v>40661</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="48" customHeight="1">
@@ -3762,7 +3764,7 @@
         <v>32110</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="20.399999999999999">
@@ -3779,7 +3781,7 @@
         <v>34164</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="20.399999999999999">
@@ -3796,7 +3798,7 @@
         <v>48719</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="24" customHeight="1">
@@ -3813,7 +3815,7 @@
         <v>42990</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="24" customHeight="1">
@@ -3830,7 +3832,7 @@
         <v>33645</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="20.399999999999999">
@@ -3847,7 +3849,7 @@
         <v>44675</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="20.399999999999999">
@@ -3864,7 +3866,7 @@
         <v>25982</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="48.75" customHeight="1">
@@ -3881,7 +3883,7 @@
         <v>28216</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="40.799999999999997">
@@ -3898,7 +3900,7 @@
         <v>41695</v>
       </c>
       <c r="E119" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="48" customHeight="1">
@@ -3915,7 +3917,7 @@
         <v>39774</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="20.399999999999999">
@@ -3932,7 +3934,7 @@
         <v>33606</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="20.399999999999999">
@@ -3949,7 +3951,7 @@
         <v>41676</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="20.399999999999999">
@@ -3966,7 +3968,7 @@
         <v>35983</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="20.399999999999999">
@@ -3983,7 +3985,7 @@
         <v>36530</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="20.399999999999999">
@@ -4000,7 +4002,7 @@
         <v>38632</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="20.399999999999999">
@@ -4017,7 +4019,7 @@
         <v>51728</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="40.799999999999997">
@@ -4034,7 +4036,7 @@
         <v>41918</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="20.399999999999999">
@@ -4051,7 +4053,7 @@
         <v>33823</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="40.799999999999997">
@@ -4068,7 +4070,7 @@
         <v>39161</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="40.799999999999997">
@@ -4085,7 +4087,7 @@
         <v>27569</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="48" customHeight="1">
@@ -4102,7 +4104,7 @@
         <v>36521</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="20.399999999999999">
@@ -4119,7 +4121,7 @@
         <v>34613</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="20.399999999999999">
@@ -4136,7 +4138,7 @@
         <v>33310</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="20.399999999999999">
@@ -4153,7 +4155,7 @@
         <v>31323</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="20.399999999999999">
@@ -4170,7 +4172,7 @@
         <v>32815</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="20.399999999999999">
@@ -4187,7 +4189,7 @@
         <v>34618</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="48" customHeight="1">
@@ -4204,7 +4206,7 @@
         <v>31531</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="20.399999999999999">
@@ -4221,7 +4223,7 @@
         <v>41855</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="81.599999999999994">
@@ -4238,7 +4240,7 @@
         <v>24656</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="81.599999999999994">
@@ -4255,7 +4257,7 @@
         <v>31051</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="20.399999999999999">
@@ -4272,7 +4274,7 @@
         <v>32868</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="20.399999999999999">
@@ -4289,7 +4291,7 @@
         <v>33642</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="20.399999999999999">
@@ -4306,7 +4308,7 @@
         <v>34311</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="20.399999999999999">
@@ -4323,7 +4325,7 @@
         <v>25998</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="24" customHeight="1">
@@ -4340,7 +4342,7 @@
         <v>31767</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="20.399999999999999">
@@ -4357,7 +4359,7 @@
         <v>28954</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="20.399999999999999">
@@ -4374,7 +4376,7 @@
         <v>32905</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="40.799999999999997">
@@ -4391,7 +4393,7 @@
         <v>33408</v>
       </c>
       <c r="E148" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="61.2">
@@ -4408,7 +4410,7 @@
         <v>33764</v>
       </c>
       <c r="E149" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="20.399999999999999">
@@ -4425,7 +4427,7 @@
         <v>32748</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="20.399999999999999">
@@ -4442,7 +4444,7 @@
         <v>32088</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="20.399999999999999">
@@ -4459,7 +4461,7 @@
         <v>34211</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="20.399999999999999">
@@ -4476,7 +4478,7 @@
         <v>39438</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="20.399999999999999">
@@ -4493,7 +4495,7 @@
         <v>40807</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="20.399999999999999">
@@ -4510,7 +4512,7 @@
         <v>36949</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="20.399999999999999">
@@ -4527,7 +4529,7 @@
         <v>46824</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="20.399999999999999">
@@ -4544,7 +4546,7 @@
         <v>31659</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="20.399999999999999">
@@ -4561,7 +4563,7 @@
         <v>36117</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="20.399999999999999">
@@ -4578,7 +4580,7 @@
         <v>35359</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="20.399999999999999">
@@ -4595,7 +4597,7 @@
         <v>41513</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="20.399999999999999">
@@ -4612,7 +4614,7 @@
         <v>34212</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="20.399999999999999">
@@ -4629,7 +4631,7 @@
         <v>45821</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="20.399999999999999">
@@ -4646,7 +4648,7 @@
         <v>47481</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="20.399999999999999">
@@ -4663,7 +4665,7 @@
         <v>47609</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="20.399999999999999">
@@ -4680,7 +4682,7 @@
         <v>41861</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="20.399999999999999">
@@ -4697,7 +4699,7 @@
         <v>39282</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="20.399999999999999">
@@ -4714,7 +4716,7 @@
         <v>40597</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="48" customHeight="1">
@@ -4731,7 +4733,7 @@
         <v>43437</v>
       </c>
       <c r="E168" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="61.2">
@@ -4748,7 +4750,7 @@
         <v>45443</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="40.799999999999997">
@@ -4765,7 +4767,7 @@
         <v>32550</v>
       </c>
       <c r="E170" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="20.399999999999999">
@@ -4782,7 +4784,7 @@
         <v>28600</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="20.399999999999999">
@@ -4799,7 +4801,7 @@
         <v>35152</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="48" customHeight="1">
@@ -4816,7 +4818,7 @@
         <v>31496</v>
       </c>
       <c r="E173" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="20.399999999999999">
@@ -4833,7 +4835,7 @@
         <v>30181</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="20.399999999999999">
@@ -4850,7 +4852,7 @@
         <v>32507</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="20.399999999999999">
@@ -4867,7 +4869,7 @@
         <v>27656</v>
       </c>
       <c r="E176" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="20.399999999999999">
@@ -4884,7 +4886,7 @@
         <v>37454</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="20.399999999999999">
@@ -4901,7 +4903,7 @@
         <v>34359</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="20.399999999999999">
@@ -4918,7 +4920,7 @@
         <v>36266</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="24" customHeight="1">
@@ -4935,7 +4937,7 @@
         <v>19883</v>
       </c>
       <c r="E180" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="20.399999999999999">
@@ -4952,7 +4954,7 @@
         <v>17652</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="40.799999999999997">
@@ -4969,7 +4971,7 @@
         <v>36799</v>
       </c>
       <c r="E182" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="20.399999999999999">
@@ -4986,7 +4988,7 @@
         <v>29323</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="20.399999999999999">
@@ -5003,7 +5005,7 @@
         <v>33632</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="20.399999999999999">
@@ -5020,7 +5022,7 @@
         <v>34503</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="20.399999999999999">
@@ -5037,7 +5039,7 @@
         <v>61916</v>
       </c>
       <c r="E186" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="20.399999999999999">
@@ -5054,7 +5056,7 @@
         <v>50646</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="20.399999999999999">
@@ -5071,7 +5073,7 @@
         <v>52417</v>
       </c>
       <c r="E188" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="20.399999999999999">
@@ -5088,7 +5090,7 @@
         <v>37503</v>
       </c>
       <c r="E189" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="20.399999999999999">
@@ -5105,7 +5107,7 @@
         <v>41885</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="20.399999999999999">
@@ -5122,7 +5124,7 @@
         <v>59985</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="20.399999999999999">
@@ -5139,7 +5141,7 @@
         <v>40518</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="20.399999999999999">
@@ -5156,7 +5158,7 @@
         <v>47584</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="20.399999999999999">
@@ -5173,7 +5175,7 @@
         <v>34406</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="20.399999999999999">
@@ -5190,7 +5192,7 @@
         <v>24781</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="20.399999999999999">
@@ -5207,7 +5209,7 @@
         <v>21466</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="20.399999999999999">
@@ -5224,7 +5226,7 @@
         <v>30441</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="24" customHeight="1">
@@ -5241,7 +5243,7 @@
         <v>35579</v>
       </c>
       <c r="E198" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="40.799999999999997">
@@ -5258,7 +5260,7 @@
         <v>32913</v>
       </c>
       <c r="E199" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="20.399999999999999">
@@ -5275,7 +5277,7 @@
         <v>25207</v>
       </c>
       <c r="E200" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="20.399999999999999">
@@ -5292,7 +5294,7 @@
         <v>40278</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="20.399999999999999">
@@ -5309,7 +5311,7 @@
         <v>28971</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="20.399999999999999">
@@ -5326,7 +5328,7 @@
         <v>35106</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="20.399999999999999">
@@ -5343,7 +5345,7 @@
         <v>34637</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="40.799999999999997">
@@ -5360,7 +5362,7 @@
         <v>46901</v>
       </c>
       <c r="E205" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="61.2">
@@ -5377,7 +5379,7 @@
         <v>39338</v>
       </c>
       <c r="E206" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="20.399999999999999">
@@ -5394,7 +5396,7 @@
         <v>51353</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="48" customHeight="1">
@@ -5411,7 +5413,7 @@
         <v>43418</v>
       </c>
       <c r="E208" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="20.399999999999999">
@@ -5428,7 +5430,7 @@
         <v>35225</v>
       </c>
       <c r="E209" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="20.399999999999999">
@@ -5445,7 +5447,7 @@
         <v>36015</v>
       </c>
       <c r="E210" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="20.399999999999999">
@@ -5462,7 +5464,7 @@
         <v>72016</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="20.399999999999999">
@@ -5479,7 +5481,7 @@
         <v>55695</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="20.399999999999999">
@@ -5496,7 +5498,7 @@
         <v>32338</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="20.399999999999999">
@@ -5513,7 +5515,7 @@
         <v>27267</v>
       </c>
       <c r="E214" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="24" customHeight="1">
@@ -5530,7 +5532,7 @@
         <v>45366</v>
       </c>
       <c r="E215" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="20.399999999999999">
@@ -5547,7 +5549,7 @@
         <v>40176</v>
       </c>
       <c r="E216" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="40.799999999999997">
@@ -5564,7 +5566,7 @@
         <v>36250</v>
       </c>
       <c r="E217" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="20.399999999999999">
@@ -5581,7 +5583,7 @@
         <v>43368</v>
       </c>
       <c r="E218" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="20.399999999999999">
@@ -5598,7 +5600,7 @@
         <v>51379</v>
       </c>
       <c r="E219" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="20.399999999999999">
@@ -5615,7 +5617,7 @@
         <v>37937</v>
       </c>
       <c r="E220" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="20.399999999999999">
@@ -5632,7 +5634,7 @@
         <v>34040</v>
       </c>
       <c r="E221" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="20.399999999999999">
@@ -5649,7 +5651,7 @@
         <v>29754</v>
       </c>
       <c r="E222" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="20.399999999999999">
@@ -5666,7 +5668,7 @@
         <v>38473</v>
       </c>
       <c r="E223" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="48" customHeight="1">
@@ -5683,7 +5685,7 @@
         <v>50480</v>
       </c>
       <c r="E224" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="20.399999999999999">
@@ -5700,7 +5702,7 @@
         <v>40612</v>
       </c>
       <c r="E225" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="20.399999999999999">
@@ -5717,7 +5719,7 @@
         <v>23745</v>
       </c>
       <c r="E226" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="24" customHeight="1">
@@ -5734,7 +5736,7 @@
         <v>37368</v>
       </c>
       <c r="E227" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="20.399999999999999">
@@ -5751,7 +5753,7 @@
         <v>38666</v>
       </c>
       <c r="E228" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="20.399999999999999">
@@ -5768,7 +5770,7 @@
         <v>44899</v>
       </c>
       <c r="E229" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="20.399999999999999">
@@ -5785,7 +5787,7 @@
         <v>49196</v>
       </c>
       <c r="E230" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="20.399999999999999">
@@ -5802,7 +5804,7 @@
         <v>37557</v>
       </c>
       <c r="E231" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="61.2">
@@ -5819,7 +5821,7 @@
         <v>50072</v>
       </c>
       <c r="E232" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="20.399999999999999">
@@ -5836,7 +5838,7 @@
         <v>58842</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="20.399999999999999">
@@ -5853,7 +5855,7 @@
         <v>52734</v>
       </c>
       <c r="E234" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="20.399999999999999">
@@ -5870,7 +5872,7 @@
         <v>51083</v>
       </c>
       <c r="E235" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="20.399999999999999">
@@ -5887,7 +5889,7 @@
         <v>36361</v>
       </c>
       <c r="E236" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="20.399999999999999">
@@ -5904,7 +5906,7 @@
         <v>33342</v>
       </c>
       <c r="E237" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="20.399999999999999">
@@ -5921,7 +5923,7 @@
         <v>35436</v>
       </c>
       <c r="E238" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="20.399999999999999">
@@ -5938,7 +5940,7 @@
         <v>30121</v>
       </c>
       <c r="E239" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="48" customHeight="1">
@@ -5955,7 +5957,7 @@
         <v>29077</v>
       </c>
       <c r="E240" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="20.399999999999999">
@@ -5972,7 +5974,7 @@
         <v>40937</v>
       </c>
       <c r="E241" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="20.399999999999999">
@@ -5989,7 +5991,7 @@
         <v>40030</v>
       </c>
       <c r="E242" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="20.399999999999999">
@@ -6006,7 +6008,7 @@
         <v>47091</v>
       </c>
       <c r="E243" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="20.399999999999999">
@@ -6023,7 +6025,7 @@
         <v>37423</v>
       </c>
       <c r="E244" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="20.399999999999999">
@@ -6040,7 +6042,7 @@
         <v>37425</v>
       </c>
       <c r="E245" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="61.2">
@@ -6057,7 +6059,7 @@
         <v>31650</v>
       </c>
       <c r="E246" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="48" customHeight="1">
@@ -6074,7 +6076,7 @@
         <v>32816</v>
       </c>
       <c r="E247" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="20.399999999999999">
@@ -6091,7 +6093,7 @@
         <v>28326</v>
       </c>
       <c r="E248" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="20.399999999999999">
@@ -6108,7 +6110,7 @@
         <v>31669</v>
       </c>
       <c r="E249" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="48" customHeight="1">
@@ -6125,7 +6127,7 @@
         <v>36573</v>
       </c>
       <c r="E250" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="20.399999999999999">
@@ -6142,7 +6144,7 @@
         <v>35690</v>
       </c>
       <c r="E251" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="48" customHeight="1">
@@ -6159,7 +6161,7 @@
         <v>50653</v>
       </c>
       <c r="E252" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="20.399999999999999">
@@ -6176,7 +6178,7 @@
         <v>42834</v>
       </c>
       <c r="E253" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="20.399999999999999">
@@ -6193,7 +6195,7 @@
         <v>51488</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="20.399999999999999">
@@ -6210,7 +6212,7 @@
         <v>51197</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="20.399999999999999">
@@ -6227,7 +6229,7 @@
         <v>52706</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="48" customHeight="1">
@@ -6244,7 +6246,7 @@
         <v>55688</v>
       </c>
       <c r="E257" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="24" customHeight="1">
@@ -6261,7 +6263,7 @@
         <v>41763</v>
       </c>
       <c r="E258" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="20.399999999999999">
@@ -6278,7 +6280,7 @@
         <v>46922</v>
       </c>
       <c r="E259" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="20.399999999999999">
@@ -6295,7 +6297,7 @@
         <v>49901</v>
       </c>
       <c r="E260" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="20.399999999999999">
@@ -6312,7 +6314,7 @@
         <v>41002</v>
       </c>
       <c r="E261" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="20.399999999999999">
@@ -6329,7 +6331,7 @@
         <v>40166</v>
       </c>
       <c r="E262" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="20.399999999999999">
@@ -6346,7 +6348,7 @@
         <v>35794</v>
       </c>
       <c r="E263" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="20.399999999999999">
@@ -6363,7 +6365,7 @@
         <v>30989</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="20.399999999999999">
@@ -6380,7 +6382,7 @@
         <v>49123</v>
       </c>
       <c r="E265" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="20.399999999999999">
@@ -6397,7 +6399,7 @@
         <v>50433</v>
       </c>
       <c r="E266" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="20.399999999999999">
@@ -6414,7 +6416,7 @@
         <v>38650</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="20.399999999999999">
@@ -6431,7 +6433,7 @@
         <v>34841</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="20.399999999999999">
@@ -6448,7 +6450,7 @@
         <v>37644</v>
       </c>
       <c r="E269" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="20.399999999999999">
@@ -6465,7 +6467,7 @@
         <v>36669</v>
       </c>
       <c r="E270" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="20.399999999999999">
@@ -6482,7 +6484,7 @@
         <v>46049</v>
       </c>
       <c r="E271" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="20.399999999999999">
@@ -6499,7 +6501,7 @@
         <v>28212</v>
       </c>
       <c r="E272" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="20.399999999999999">
@@ -6516,7 +6518,7 @@
         <v>37245</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="20.399999999999999">
@@ -6533,7 +6535,7 @@
         <v>36802</v>
       </c>
       <c r="E274" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="20.399999999999999">
@@ -6550,7 +6552,7 @@
         <v>42390</v>
       </c>
       <c r="E275" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="20.399999999999999">
@@ -6567,7 +6569,7 @@
         <v>32214</v>
       </c>
       <c r="E276" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="20.399999999999999">
@@ -6584,7 +6586,7 @@
         <v>55386</v>
       </c>
       <c r="E277" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="20.399999999999999">
@@ -6601,7 +6603,7 @@
         <v>28465</v>
       </c>
       <c r="E278" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="20.399999999999999">
@@ -6618,7 +6620,7 @@
         <v>31286</v>
       </c>
       <c r="E279" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="20.399999999999999">
@@ -6635,7 +6637,7 @@
         <v>52420</v>
       </c>
       <c r="E280" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="20.399999999999999">
@@ -6652,7 +6654,7 @@
         <v>33897</v>
       </c>
       <c r="E281" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="20.399999999999999">
@@ -6669,7 +6671,7 @@
         <v>51376</v>
       </c>
       <c r="E282" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="20.399999999999999">
@@ -6686,7 +6688,7 @@
         <v>34668</v>
       </c>
       <c r="E283" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="20.399999999999999">
@@ -6703,7 +6705,7 @@
         <v>35707</v>
       </c>
       <c r="E284" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="20.399999999999999">
@@ -6720,7 +6722,7 @@
         <v>29424</v>
       </c>
       <c r="E285" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="20.399999999999999">
@@ -6737,7 +6739,7 @@
         <v>36288</v>
       </c>
       <c r="E286" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="20.399999999999999">
@@ -6754,7 +6756,7 @@
         <v>42117</v>
       </c>
       <c r="E287" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="20.399999999999999">
@@ -6771,7 +6773,7 @@
         <v>27806</v>
       </c>
       <c r="E288" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="20.399999999999999">
@@ -6788,7 +6790,7 @@
         <v>27875</v>
       </c>
       <c r="E289" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="20.399999999999999">
@@ -6805,7 +6807,7 @@
         <v>26719</v>
       </c>
       <c r="E290" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="40.799999999999997">
@@ -6822,7 +6824,7 @@
         <v>29912</v>
       </c>
       <c r="E291" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="20.399999999999999">
@@ -6839,7 +6841,7 @@
         <v>36738</v>
       </c>
       <c r="E292" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="48" customHeight="1">
@@ -6856,7 +6858,7 @@
         <v>25323</v>
       </c>
       <c r="E293" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="20.399999999999999">
@@ -6873,7 +6875,7 @@
         <v>63099</v>
       </c>
       <c r="E294" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="20.399999999999999">
@@ -6890,7 +6892,7 @@
         <v>52978</v>
       </c>
       <c r="E295" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="20.399999999999999">
@@ -6907,7 +6909,7 @@
         <v>41962</v>
       </c>
       <c r="E296" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="20.399999999999999">
@@ -6924,7 +6926,7 @@
         <v>31035</v>
       </c>
       <c r="E297" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="20.399999999999999">
@@ -6941,7 +6943,7 @@
         <v>43776</v>
       </c>
       <c r="E298" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="20.399999999999999">
@@ -6958,7 +6960,7 @@
         <v>32674</v>
       </c>
       <c r="E299" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="20.399999999999999">
@@ -6975,7 +6977,7 @@
         <v>49101</v>
       </c>
       <c r="E300" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="20.399999999999999">
@@ -6992,7 +6994,7 @@
         <v>43957</v>
       </c>
       <c r="E301" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="20.399999999999999">
@@ -7009,7 +7011,7 @@
         <v>40419</v>
       </c>
       <c r="E302" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="20.399999999999999">
@@ -7026,7 +7028,7 @@
         <v>34884</v>
       </c>
       <c r="E303" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="20.399999999999999">
@@ -7043,7 +7045,7 @@
         <v>67437</v>
       </c>
       <c r="E304" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="61.2">
@@ -7060,7 +7062,7 @@
         <v>69274</v>
       </c>
       <c r="E305" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="61.2">
@@ -7077,7 +7079,7 @@
         <v>59783</v>
       </c>
       <c r="E306" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="20.399999999999999">
@@ -7094,7 +7096,7 @@
         <v>59714</v>
       </c>
       <c r="E307" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="20.399999999999999">
@@ -7111,7 +7113,7 @@
         <v>32092</v>
       </c>
       <c r="E308" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="20.399999999999999">
@@ -7128,7 +7130,7 @@
         <v>21957</v>
       </c>
       <c r="E309" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="20.399999999999999">
@@ -7145,7 +7147,7 @@
         <v>44514</v>
       </c>
       <c r="E310" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="20.399999999999999">
@@ -7162,7 +7164,7 @@
         <v>47416</v>
       </c>
       <c r="E311" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="20.399999999999999">
@@ -7179,7 +7181,7 @@
         <v>44189</v>
       </c>
       <c r="E312" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="20.399999999999999">
@@ -7196,7 +7198,7 @@
         <v>41877</v>
       </c>
       <c r="E313" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="48" customHeight="1">
@@ -7213,7 +7215,7 @@
         <v>31614</v>
       </c>
       <c r="E314" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="61.2">
@@ -7230,7 +7232,7 @@
         <v>35706</v>
       </c>
       <c r="E315" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="48" customHeight="1">
@@ -7247,7 +7249,7 @@
         <v>29254</v>
       </c>
       <c r="E316" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="61.2">
@@ -7264,7 +7266,7 @@
         <v>34673</v>
       </c>
       <c r="E317" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="48" customHeight="1">
@@ -7281,7 +7283,7 @@
         <v>45681</v>
       </c>
       <c r="E318" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="20.399999999999999">
@@ -7298,7 +7300,7 @@
         <v>23394</v>
       </c>
       <c r="E319" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="20.399999999999999">
@@ -7315,7 +7317,7 @@
         <v>29026</v>
       </c>
       <c r="E320" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="20.399999999999999">
@@ -7332,7 +7334,7 @@
         <v>33676</v>
       </c>
       <c r="E321" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="20.399999999999999">
@@ -7349,7 +7351,7 @@
         <v>29737</v>
       </c>
       <c r="E322" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="20.399999999999999">
@@ -7366,7 +7368,7 @@
         <v>44074</v>
       </c>
       <c r="E323" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="20.399999999999999">
@@ -7383,7 +7385,7 @@
         <v>36792</v>
       </c>
       <c r="E324" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="20.399999999999999">
@@ -7400,7 +7402,7 @@
         <v>25958</v>
       </c>
       <c r="E325" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="20.399999999999999">
@@ -7417,7 +7419,7 @@
         <v>41260</v>
       </c>
       <c r="E326" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="20.399999999999999">
@@ -7434,7 +7436,7 @@
         <v>62741</v>
       </c>
       <c r="E327" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="20.399999999999999">
@@ -7451,7 +7453,7 @@
         <v>26320</v>
       </c>
       <c r="E328" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="20.399999999999999">
@@ -7468,7 +7470,7 @@
         <v>26540</v>
       </c>
       <c r="E329" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="20.399999999999999">
@@ -7485,7 +7487,7 @@
         <v>30963</v>
       </c>
       <c r="E330" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="48" customHeight="1">
@@ -7502,7 +7504,7 @@
         <v>32587</v>
       </c>
       <c r="E331" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="20.399999999999999">
@@ -7519,7 +7521,7 @@
         <v>36728</v>
       </c>
       <c r="E332" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="48" customHeight="1">
@@ -7536,7 +7538,7 @@
         <v>47734</v>
       </c>
       <c r="E333" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="20.399999999999999">
@@ -7553,7 +7555,7 @@
         <v>40271</v>
       </c>
       <c r="E334" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="48" customHeight="1">
@@ -7570,7 +7572,7 @@
         <v>42517</v>
       </c>
       <c r="E335" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="48" customHeight="1">
@@ -7587,7 +7589,7 @@
         <v>46335</v>
       </c>
       <c r="E336" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="20.399999999999999">
@@ -7604,7 +7606,7 @@
         <v>58337</v>
       </c>
       <c r="E337" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="20.399999999999999">
@@ -7621,7 +7623,7 @@
         <v>54669</v>
       </c>
       <c r="E338" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="20.399999999999999">
@@ -7638,7 +7640,7 @@
         <v>51028</v>
       </c>
       <c r="E339" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="20.399999999999999">
@@ -7655,7 +7657,7 @@
         <v>58659</v>
       </c>
       <c r="E340" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="20.399999999999999">
@@ -7672,7 +7674,7 @@
         <v>35450</v>
       </c>
       <c r="E341" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="20.399999999999999">
@@ -7689,7 +7691,7 @@
         <v>38660</v>
       </c>
       <c r="E342" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="20.399999999999999">
@@ -7706,7 +7708,7 @@
         <v>41777</v>
       </c>
       <c r="E343" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="20.399999999999999">
@@ -7723,7 +7725,7 @@
         <v>44197</v>
       </c>
       <c r="E344" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="20.399999999999999">
@@ -7740,7 +7742,7 @@
         <v>32167</v>
       </c>
       <c r="E345" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="20.399999999999999">
@@ -7757,7 +7759,7 @@
         <v>47528</v>
       </c>
       <c r="E346" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="20.399999999999999">
@@ -7774,7 +7776,7 @@
         <v>32624</v>
       </c>
       <c r="E347" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="61.2">
@@ -7791,7 +7793,7 @@
         <v>34439</v>
       </c>
       <c r="E348" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="20.399999999999999">
@@ -7808,7 +7810,7 @@
         <v>24309</v>
       </c>
       <c r="E349" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="20.399999999999999">
@@ -7825,7 +7827,7 @@
         <v>33157</v>
       </c>
       <c r="E350" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="20.399999999999999">
@@ -7842,7 +7844,7 @@
         <v>36657</v>
       </c>
       <c r="E351" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
